--- a/output for open sales order query details.xlsx
+++ b/output for open sales order query details.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,12 +10,28 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF3E627-FEEA-49AE-8066-BFC41B432A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output for open sales order que" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -418,8 +434,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,53 +1297,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37">
       <c r="A2" s="2">
         <v>1035197</v>
       </c>
@@ -1547,7 +1563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37">
       <c r="A3" s="2">
         <v>1038725</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37">
       <c r="A4" s="2">
         <v>1039116</v>
       </c>
@@ -1749,7 +1765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37">
       <c r="A5" s="2">
         <v>1039116</v>
       </c>
@@ -1850,7 +1866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37">
       <c r="A6" s="2">
         <v>1039116</v>
       </c>
@@ -1951,7 +1967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37">
       <c r="A7" s="2">
         <v>1039116</v>
       </c>
@@ -2052,7 +2068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37">
       <c r="A8" s="2">
         <v>1039116</v>
       </c>
@@ -2153,7 +2169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37">
       <c r="A9" s="2">
         <v>1039116</v>
       </c>
@@ -2254,7 +2270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37">
       <c r="A10" s="2">
         <v>1039116</v>
       </c>
@@ -2355,7 +2371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37">
       <c r="A11" s="2">
         <v>1039116</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37">
       <c r="A12" s="2">
         <v>1039116</v>
       </c>
@@ -2557,7 +2573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37">
       <c r="A13" s="2">
         <v>1039116</v>
       </c>
@@ -2658,7 +2674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37">
       <c r="A14" s="2">
         <v>1039116</v>
       </c>
@@ -2759,7 +2775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37">
       <c r="A15" s="2">
         <v>1039116</v>
       </c>
@@ -2860,7 +2876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37">
       <c r="A16" s="2">
         <v>1039116</v>
       </c>
@@ -2961,7 +2977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37">
       <c r="A17" s="2">
         <v>1039116</v>
       </c>
@@ -3062,7 +3078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37">
       <c r="A18" s="2">
         <v>1039116</v>
       </c>
@@ -3163,7 +3179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37">
       <c r="A19" s="2">
         <v>1039116</v>
       </c>
@@ -3264,7 +3280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37">
       <c r="A20" s="2">
         <v>1039116</v>
       </c>
@@ -3365,7 +3381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37">
       <c r="A21" s="2">
         <v>1039116</v>
       </c>
@@ -3466,7 +3482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37">
       <c r="A22" s="2">
         <v>1039116</v>
       </c>
@@ -3567,7 +3583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37">
       <c r="A23" s="2">
         <v>1042284</v>
       </c>
@@ -3672,7 +3688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37">
       <c r="A24" s="2">
         <v>1044925</v>
       </c>
@@ -3771,7 +3787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37">
       <c r="A25" s="2">
         <v>1044925</v>
       </c>
@@ -3870,7 +3886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37">
       <c r="A26" s="2">
         <v>1046016</v>
       </c>
@@ -3973,7 +3989,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37">
       <c r="A27" s="2">
         <v>1046016</v>
       </c>
@@ -4076,7 +4092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37">
       <c r="A28" s="2">
         <v>1046259</v>
       </c>
@@ -4179,7 +4195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37">
       <c r="A29" s="2">
         <v>1046259</v>
       </c>
@@ -4282,7 +4298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37">
       <c r="A30" s="2">
         <v>1046259</v>
       </c>
@@ -4385,7 +4401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37">
       <c r="A31" s="2">
         <v>1046492</v>
       </c>
@@ -4486,7 +4502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37">
       <c r="A32" s="2">
         <v>1046493</v>
       </c>
@@ -4590,4 +4606,232 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB658447B0109340B867E287E54A7847" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30a4106e8c98390e25c33fd1841a7468">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1abb25d-b993-4520-8b6d-6bd4c98196e3" xmlns:ns3="8bd4f150-0957-4341-b606-c655b8175a10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12370b321e76706e73654a4236e58c90" ns2:_="" ns3:_="">
+    <xsd:import namespace="d1abb25d-b993-4520-8b6d-6bd4c98196e3"/>
+    <xsd:import namespace="8bd4f150-0957-4341-b606-c655b8175a10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1abb25d-b993-4520-8b6d-6bd4c98196e3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8bd4f150-0957-4341-b606-c655b8175a10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD69F4DB-63D7-48DB-AB92-6445ED4A18D7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A9099FE-B885-40E0-B76E-C82D90B5BF2F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F85D758-C74F-4AAE-B3BD-C6D28F8F320A}"/>
 </file>